--- a/kt6.xlsx
+++ b/kt6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT_6_Bulaev_A.A.-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,7 @@
     <sheet name="Supplier" sheetId="12" r:id="rId13"/>
     <sheet name="Produser" sheetId="11" r:id="rId14"/>
     <sheet name="ProductName" sheetId="10" r:id="rId15"/>
-    <sheet name="Лист4" sheetId="17" r:id="rId16"/>
-    <sheet name="Лист5" sheetId="18" r:id="rId17"/>
-    <sheet name="Category" sheetId="13" r:id="rId18"/>
+    <sheet name="Category" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -780,7 +778,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -807,6 +805,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -859,10 +866,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,8 +917,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1226,7 +1238,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1470,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="47.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1486,7 +1498,7 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1497,6 +1509,9 @@
   <sortState ref="A2:G11">
     <sortCondition ref="C1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1506,7 +1521,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1775,7 +1790,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1843,10 +1858,10 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="6"/>
       <c r="G2" s="6">
         <v>123</v>
       </c>
@@ -1886,10 +1901,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6">
         <v>149</v>
       </c>
@@ -1929,10 +1944,10 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="6"/>
       <c r="G4" s="6">
         <v>1200</v>
       </c>
@@ -1972,10 +1987,10 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="6"/>
       <c r="G5" s="6">
         <v>86</v>
       </c>
@@ -2015,10 +2030,10 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6">
         <v>166</v>
       </c>
@@ -2058,10 +2073,10 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="6"/>
       <c r="G7" s="6">
         <v>1700</v>
       </c>
@@ -2101,10 +2116,10 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>300</v>
       </c>
@@ -2144,10 +2159,10 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="6"/>
       <c r="G9" s="6">
         <v>199</v>
       </c>
@@ -2187,10 +2202,10 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6">
         <v>234</v>
       </c>
@@ -2230,10 +2245,10 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6">
         <v>170</v>
       </c>
@@ -2998,7 +3013,7 @@
       </c>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3102,7 +3117,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3144,7 +3159,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3276,7 +3291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -3371,34 +3388,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3448,7 +3441,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3498,7 +3491,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -4258,7 +4251,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4570,7 +4563,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4611,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5264,8 +5257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5579,7 +5572,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5797,7 +5790,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
